--- a/backend/src/excel_handler/files/VALO.xlsx
+++ b/backend/src/excel_handler/files/VALO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7745650.36</v>
+        <v>15062984.3</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>322735.43</v>
+        <v>470718.26</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>970793.97</v>
+        <v>970549.78</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>389542.47</v>
+        <v>388864.95</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1385635.76</v>
+        <v>1388802</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117346.52</v>
+        <v>117105.35</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1614894.62</v>
+        <v>1598116.47</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>200520.23</v>
+        <v>200020.05</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>250332.36</v>
+        <v>240140.24</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>375662.96</v>
+        <v>375369.85</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>327175.64</v>
+        <v>328695.89</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245150.84</v>
+        <v>246062.72</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>129707.32</v>
+        <v>129428.96</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>159057.9</v>
+        <v>161492.29</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>302475.34</v>
+        <v>302445.63</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>350964.35</v>
+        <v>351504.63</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99664.25999999999</v>
+        <v>100328.2</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110703.48</v>
+        <v>118731.01</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>78391.81</v>
+        <v>78287.2</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15626.16</v>
+        <v>16165.68</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>367242.76</v>
+        <v>526044.42</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19952.15</v>
+        <v>20157.63</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38674.09</v>
+        <v>38637.96</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81726.77</v>
+        <v>81394.34</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11213.29</v>
+        <v>11228.71</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,87 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>103195.31</v>
+        <v>103276.47</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>124531.49</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>733.84</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1055027.13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2762785.55</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5505.96</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>10443.1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>11228.71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3199878.09</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VALO.xlsx
+++ b/backend/src/excel_handler/files/VALO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,348 +436,455 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15062984.3</v>
+        <v>604803.23</v>
+      </c>
+      <c r="C2" t="n">
+        <v>605392.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>470718.26</v>
+        <v>974272.39</v>
+      </c>
+      <c r="C3" t="n">
+        <v>990529.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>970549.78</v>
+        <v>20296.38</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19732</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>388864.95</v>
+        <v>77958.38</v>
+      </c>
+      <c r="C5" t="n">
+        <v>78538.86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1388802</v>
+        <v>389368.45</v>
+      </c>
+      <c r="C6" t="n">
+        <v>389064.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117105.35</v>
+        <v>1390409.84</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1389912.42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1598116.47</v>
+        <v>1061599.61</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1053603.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>200020.05</v>
+        <v>38637.52</v>
+      </c>
+      <c r="C9" t="n">
+        <v>38732.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>240140.24</v>
+        <v>5506.33</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5529.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>375369.85</v>
+        <v>116882.54</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8645.709999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>328695.89</v>
+        <v>2614084.19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2578167.38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>246062.72</v>
+        <v>129460.42</v>
+      </c>
+      <c r="C13" t="n">
+        <v>166921.24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>129428.96</v>
+        <v>161606.05</v>
+      </c>
+      <c r="C14" t="n">
+        <v>160622.95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>161492.29</v>
+        <v>1594948.9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1624102.04</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>302445.63</v>
+        <v>201576.53</v>
+      </c>
+      <c r="C16" t="n">
+        <v>201704.83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351504.63</v>
+        <v>81651.69</v>
+      </c>
+      <c r="C17" t="n">
+        <v>81289.53999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100328.2</v>
+        <v>10446.12</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10466.79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>118731.01</v>
+        <v>224656.37</v>
+      </c>
+      <c r="C19" t="n">
+        <v>225352.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>78287.2</v>
+        <v>376245.37</v>
+      </c>
+      <c r="C20" t="n">
+        <v>373067.04</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16165.68</v>
+        <v>125150.36</v>
+      </c>
+      <c r="C21" t="n">
+        <v>124895.09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>526044.42</v>
+        <v>11193.75</v>
+      </c>
+      <c r="C22" t="n">
+        <v>15370.68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20157.63</v>
+        <v>11193.75</v>
+      </c>
+      <c r="C23" t="n">
+        <v>15370.68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38637.96</v>
+        <v>124250.25</v>
+      </c>
+      <c r="C24" t="n">
+        <v>124539.94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81394.34</v>
+        <v>724.99</v>
+      </c>
+      <c r="C25" t="n">
+        <v>740.3099999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11228.71</v>
+        <v>103276.19</v>
+      </c>
+      <c r="C26" t="n">
+        <v>103135.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>103276.47</v>
+        <v>302160.25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>303090.71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>124531.49</v>
+        <v>350718.56</v>
+      </c>
+      <c r="C28" t="n">
+        <v>350780.68</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>733.84</v>
+        <v>16348.56</v>
+      </c>
+      <c r="C29" t="n">
+        <v>16033.92</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1055027.13</v>
+        <v>328678.14</v>
+      </c>
+      <c r="C30" t="n">
+        <v>327476.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2762785.55</v>
+        <v>246197.33</v>
+      </c>
+      <c r="C31" t="n">
+        <v>245846.51</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5505.96</v>
+        <v>3183455.44</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3197643.34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10443.1</v>
+        <v>100064.83</v>
+      </c>
+      <c r="C33" t="n">
+        <v>100109.46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11228.71</v>
+        <v>468056.96</v>
+      </c>
+      <c r="C34" t="n">
+        <v>466450.24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3199878.09</v>
+        <v>14977822.71</v>
+      </c>
+      <c r="C35" t="n">
+        <v>14926407.76</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VALO.xlsx
+++ b/backend/src/excel_handler/files/VALO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,443 +443,351 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>604803.23</v>
-      </c>
-      <c r="C2" t="n">
-        <v>605392.62</v>
+        <v>15738680.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>974272.39</v>
-      </c>
-      <c r="C3" t="n">
-        <v>990529.11</v>
+        <v>476929.72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20296.38</v>
-      </c>
-      <c r="C4" t="n">
-        <v>19732</v>
+        <v>605392.62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77958.38</v>
-      </c>
-      <c r="C5" t="n">
-        <v>78538.86</v>
+        <v>990529.11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Adcap Balanceado V</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>389368.45</v>
-      </c>
-      <c r="C6" t="n">
-        <v>389064.75</v>
+        <v>295014.52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1390409.84</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1389912.42</v>
+        <v>19732</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Adcap Wise</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1061599.61</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1053603.04</v>
+        <v>532629.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38637.52</v>
-      </c>
-      <c r="C9" t="n">
-        <v>38732.12</v>
+        <v>78538.86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5506.33</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5529.2</v>
+        <v>389064.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>116882.54</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8645.709999999999</v>
+        <v>1389912.42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2614084.19</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2578167.38</v>
+        <v>1053603.04</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129460.42</v>
-      </c>
-      <c r="C13" t="n">
-        <v>166921.24</v>
+        <v>38732.12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>161606.05</v>
-      </c>
-      <c r="C14" t="n">
-        <v>160622.95</v>
+        <v>5529.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1594948.9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1624102.04</v>
+        <v>8645.709999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>201576.53</v>
-      </c>
-      <c r="C16" t="n">
-        <v>201704.83</v>
+        <v>2578167.38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81651.69</v>
-      </c>
-      <c r="C17" t="n">
-        <v>81289.53999999999</v>
+        <v>166921.24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10446.12</v>
-      </c>
-      <c r="C18" t="n">
-        <v>10466.79</v>
+        <v>160622.95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>224656.37</v>
-      </c>
-      <c r="C19" t="n">
-        <v>225352.3</v>
+        <v>1624102.04</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376245.37</v>
-      </c>
-      <c r="C20" t="n">
-        <v>373067.04</v>
+        <v>201704.83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>125150.36</v>
-      </c>
-      <c r="C21" t="n">
-        <v>124895.09</v>
+        <v>81289.53999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11193.75</v>
-      </c>
-      <c r="C22" t="n">
-        <v>15370.68</v>
+        <v>10466.79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11193.75</v>
-      </c>
-      <c r="C23" t="n">
-        <v>15370.68</v>
+        <v>225352.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>124250.25</v>
-      </c>
-      <c r="C24" t="n">
-        <v>124539.94</v>
+        <v>373067.04</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>724.99</v>
-      </c>
-      <c r="C25" t="n">
-        <v>740.3099999999999</v>
+        <v>124895.09</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>103276.19</v>
-      </c>
-      <c r="C26" t="n">
-        <v>103135.9</v>
+        <v>15370.68</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>302160.25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>303090.71</v>
+        <v>124539.94</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>350718.56</v>
-      </c>
-      <c r="C28" t="n">
-        <v>350780.68</v>
+        <v>740.3099999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>16348.56</v>
-      </c>
-      <c r="C29" t="n">
-        <v>16033.92</v>
+        <v>103135.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>328678.14</v>
-      </c>
-      <c r="C30" t="n">
-        <v>327476.6</v>
+        <v>303090.71</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>246197.33</v>
-      </c>
-      <c r="C31" t="n">
-        <v>245846.51</v>
+        <v>350780.68</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3183455.44</v>
-      </c>
-      <c r="C32" t="n">
-        <v>3197643.34</v>
+        <v>16033.92</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100064.83</v>
-      </c>
-      <c r="C33" t="n">
-        <v>100109.46</v>
+        <v>327476.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>468056.96</v>
-      </c>
-      <c r="C34" t="n">
-        <v>466450.24</v>
+        <v>245846.51</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14977822.71</v>
-      </c>
-      <c r="C35" t="n">
-        <v>14926407.76</v>
+        <v>3197643.34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Toronto Trust Multimercado</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>100109.46</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VALO.xlsx
+++ b/backend/src/excel_handler/files/VALO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,355 +439,455 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15738680.62</v>
+        <v>605392.62</v>
+      </c>
+      <c r="C2" t="n">
+        <v>640930.23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>476929.72</v>
+        <v>990529.11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>988874.8199999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap Balanceado V</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>605392.62</v>
+        <v>295014.52</v>
+      </c>
+      <c r="C4" t="n">
+        <v>266099.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>990529.11</v>
+        <v>19732</v>
+      </c>
+      <c r="C5" t="n">
+        <v>19635.72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap Balanceado V</t>
+          <t>Adcap Wise</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>295014.52</v>
+        <v>532629.02</v>
+      </c>
+      <c r="C6" t="n">
+        <v>477053.67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19732</v>
+        <v>78538.86</v>
+      </c>
+      <c r="C7" t="n">
+        <v>78354.11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Adcap Wise</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>532629.02</v>
+        <v>389064.75</v>
+      </c>
+      <c r="C8" t="n">
+        <v>390001.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78538.86</v>
+        <v>1389912.42</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1389806.51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>389064.75</v>
+        <v>1053603.04</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1048935.77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1389912.42</v>
+        <v>38732.12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>38634.65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1053603.04</v>
+        <v>5529.2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5520.34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38732.12</v>
+        <v>8645.709999999999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8929.639999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5529.2</v>
-      </c>
+        <v>2578167.38</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8645.709999999999</v>
-      </c>
+        <v>166921.24</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2578167.38</v>
-      </c>
+        <v>160622.95</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>166921.24</v>
-      </c>
+        <v>1624102.04</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>160622.95</v>
+        <v>201704.83</v>
+      </c>
+      <c r="C18" t="n">
+        <v>200380.02</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1624102.04</v>
+        <v>81289.53999999999</v>
+      </c>
+      <c r="C19" t="n">
+        <v>81638.42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>201704.83</v>
+        <v>10466.79</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10519.39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>81289.53999999999</v>
+        <v>225352.3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>226172.57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10466.79</v>
+        <v>373067.04</v>
+      </c>
+      <c r="C22" t="n">
+        <v>373678.79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>225352.3</v>
+        <v>124895.09</v>
+      </c>
+      <c r="C23" t="n">
+        <v>131053.92</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>373067.04</v>
+        <v>15370.68</v>
+      </c>
+      <c r="C24" t="n">
+        <v>15379.56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>124895.09</v>
+        <v>124539.94</v>
+      </c>
+      <c r="C25" t="n">
+        <v>138404.74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15370.68</v>
+        <v>740.3099999999999</v>
+      </c>
+      <c r="C26" t="n">
+        <v>731.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>124539.94</v>
+        <v>103135.9</v>
+      </c>
+      <c r="C27" t="n">
+        <v>103046.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>740.3099999999999</v>
-      </c>
+        <v>303090.71</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>103135.9</v>
+        <v>350780.68</v>
+      </c>
+      <c r="C29" t="n">
+        <v>349269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>303090.71</v>
+        <v>16033.92</v>
+      </c>
+      <c r="C30" t="n">
+        <v>15636.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>350780.68</v>
+        <v>327476.6</v>
+      </c>
+      <c r="C31" t="n">
+        <v>328656.13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>16033.92</v>
+        <v>245846.51</v>
+      </c>
+      <c r="C32" t="n">
+        <v>245588.31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>327476.6</v>
+        <v>3197643.34</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3616847.15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245846.51</v>
+        <v>100109.46</v>
+      </c>
+      <c r="C34" t="n">
+        <v>100136.78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3197643.34</v>
+        <v>476929.72</v>
+      </c>
+      <c r="C35" t="n">
+        <v>403211.28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>100109.46</v>
+        <v>15738680.62</v>
+      </c>
+      <c r="C36" t="n">
+        <v>11289915.78</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VALO.xlsx
+++ b/backend/src/excel_handler/files/VALO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>640930.23</v>
       </c>
+      <c r="D2" t="n">
+        <v>580877.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>988874.8199999999</v>
       </c>
+      <c r="D3" t="n">
+        <v>1044909.57</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>266099.34</v>
       </c>
+      <c r="D4" t="n">
+        <v>238126.38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>19635.72</v>
       </c>
+      <c r="D5" t="n">
+        <v>110925.02</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>477053.67</v>
       </c>
+      <c r="D6" t="n">
+        <v>427489.72</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,6 +542,9 @@
       <c r="C7" t="n">
         <v>78354.11</v>
       </c>
+      <c r="D7" t="n">
+        <v>89594.92999999999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>390001.9</v>
       </c>
+      <c r="D8" t="n">
+        <v>390750.27</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -548,6 +574,9 @@
       <c r="C9" t="n">
         <v>1389806.51</v>
       </c>
+      <c r="D9" t="n">
+        <v>1387919.04</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -561,6 +590,9 @@
       <c r="C10" t="n">
         <v>1048935.77</v>
       </c>
+      <c r="D10" t="n">
+        <v>1051332.45</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -574,6 +606,9 @@
       <c r="C11" t="n">
         <v>38634.65</v>
       </c>
+      <c r="D11" t="n">
+        <v>38766.28</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -587,6 +622,9 @@
       <c r="C12" t="n">
         <v>5520.34</v>
       </c>
+      <c r="D12" t="n">
+        <v>5505.78</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -600,6 +638,9 @@
       <c r="C13" t="n">
         <v>8929.639999999999</v>
       </c>
+      <c r="D13" t="n">
+        <v>7821.25</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -611,6 +652,9 @@
         <v>2578167.38</v>
       </c>
       <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>2069418.1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -622,6 +666,9 @@
         <v>166921.24</v>
       </c>
       <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>167305.91</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -633,6 +680,9 @@
         <v>160622.95</v>
       </c>
       <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>160985.98</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -644,6 +694,9 @@
         <v>1624102.04</v>
       </c>
       <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>1661696.51</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -657,6 +710,9 @@
       <c r="C18" t="n">
         <v>200380.02</v>
       </c>
+      <c r="D18" t="n">
+        <v>200371.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -670,6 +726,9 @@
       <c r="C19" t="n">
         <v>81638.42</v>
       </c>
+      <c r="D19" t="n">
+        <v>71772.64999999999</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -683,6 +742,9 @@
       <c r="C20" t="n">
         <v>10519.39</v>
       </c>
+      <c r="D20" t="n">
+        <v>10475.31</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -696,6 +758,9 @@
       <c r="C21" t="n">
         <v>226172.57</v>
       </c>
+      <c r="D21" t="n">
+        <v>224526.15</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -709,6 +774,9 @@
       <c r="C22" t="n">
         <v>373678.79</v>
       </c>
+      <c r="D22" t="n">
+        <v>298774.06</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -722,6 +790,9 @@
       <c r="C23" t="n">
         <v>131053.92</v>
       </c>
+      <c r="D23" t="n">
+        <v>168194.35</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -735,6 +806,9 @@
       <c r="C24" t="n">
         <v>15379.56</v>
       </c>
+      <c r="D24" t="n">
+        <v>17174.76</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -748,6 +822,9 @@
       <c r="C25" t="n">
         <v>138404.74</v>
       </c>
+      <c r="D25" t="n">
+        <v>138298.64</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -761,6 +838,9 @@
       <c r="C26" t="n">
         <v>731.4</v>
       </c>
+      <c r="D26" t="n">
+        <v>1309.52</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -774,6 +854,9 @@
       <c r="C27" t="n">
         <v>103046.6</v>
       </c>
+      <c r="D27" t="n">
+        <v>75514.82000000001</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -785,6 +868,9 @@
         <v>303090.71</v>
       </c>
       <c r="C28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>301901.94</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -798,6 +884,9 @@
       <c r="C29" t="n">
         <v>349269</v>
       </c>
+      <c r="D29" t="n">
+        <v>350408.99</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -811,6 +900,9 @@
       <c r="C30" t="n">
         <v>15636.3</v>
       </c>
+      <c r="D30" t="n">
+        <v>15906.39</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -824,6 +916,9 @@
       <c r="C31" t="n">
         <v>328656.13</v>
       </c>
+      <c r="D31" t="n">
+        <v>328577.84</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -837,6 +932,9 @@
       <c r="C32" t="n">
         <v>245588.31</v>
       </c>
+      <c r="D32" t="n">
+        <v>231576.05</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -850,6 +948,9 @@
       <c r="C33" t="n">
         <v>3616847.15</v>
       </c>
+      <c r="D33" t="n">
+        <v>3612324.39</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -863,6 +964,9 @@
       <c r="C34" t="n">
         <v>100136.78</v>
       </c>
+      <c r="D34" t="n">
+        <v>100007.61</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -876,6 +980,9 @@
       <c r="C35" t="n">
         <v>403211.28</v>
       </c>
+      <c r="D35" t="n">
+        <v>472137.59</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -888,6 +995,9 @@
       </c>
       <c r="C36" t="n">
         <v>11289915.78</v>
+      </c>
+      <c r="D36" t="n">
+        <v>15580540.51</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VALO.xlsx
+++ b/backend/src/excel_handler/files/VALO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>580877.9</v>
       </c>
+      <c r="E2" t="n">
+        <v>580181.48</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>1044909.57</v>
       </c>
+      <c r="E3" t="n">
+        <v>1047830.15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,7 @@
       <c r="D4" t="n">
         <v>238126.38</v>
       </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +525,9 @@
       <c r="D5" t="n">
         <v>110925.02</v>
       </c>
+      <c r="E5" t="n">
+        <v>111242.02</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -529,6 +544,7 @@
       <c r="D6" t="n">
         <v>427489.72</v>
       </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -545,6 +561,9 @@
       <c r="D7" t="n">
         <v>89594.92999999999</v>
       </c>
+      <c r="E7" t="n">
+        <v>89160.12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -561,6 +580,9 @@
       <c r="D8" t="n">
         <v>390750.27</v>
       </c>
+      <c r="E8" t="n">
+        <v>389485.99</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -577,6 +599,9 @@
       <c r="D9" t="n">
         <v>1387919.04</v>
       </c>
+      <c r="E9" t="n">
+        <v>1386810.11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -593,6 +618,9 @@
       <c r="D10" t="n">
         <v>1051332.45</v>
       </c>
+      <c r="E10" t="n">
+        <v>1050810.89</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -609,6 +637,9 @@
       <c r="D11" t="n">
         <v>38766.28</v>
       </c>
+      <c r="E11" t="n">
+        <v>38720.62</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -625,6 +656,9 @@
       <c r="D12" t="n">
         <v>5505.78</v>
       </c>
+      <c r="E12" t="n">
+        <v>5535.31</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -640,6 +674,9 @@
       </c>
       <c r="D13" t="n">
         <v>7821.25</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8221.93</v>
       </c>
     </row>
     <row r="14">
@@ -655,6 +692,7 @@
       <c r="D14" t="n">
         <v>2069418.1</v>
       </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -669,6 +707,9 @@
       <c r="D15" t="n">
         <v>167305.91</v>
       </c>
+      <c r="E15" t="n">
+        <v>167748.13</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -683,6 +724,9 @@
       <c r="D16" t="n">
         <v>160985.98</v>
       </c>
+      <c r="E16" t="n">
+        <v>158990.44</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -697,6 +741,9 @@
       <c r="D17" t="n">
         <v>1661696.51</v>
       </c>
+      <c r="E17" t="n">
+        <v>1750587.62</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -713,6 +760,9 @@
       <c r="D18" t="n">
         <v>200371.95</v>
       </c>
+      <c r="E18" t="n">
+        <v>202743.07</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -729,6 +779,9 @@
       <c r="D19" t="n">
         <v>71772.64999999999</v>
       </c>
+      <c r="E19" t="n">
+        <v>71713.53</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -745,6 +798,9 @@
       <c r="D20" t="n">
         <v>10475.31</v>
       </c>
+      <c r="E20" t="n">
+        <v>10447.93</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -761,6 +817,9 @@
       <c r="D21" t="n">
         <v>224526.15</v>
       </c>
+      <c r="E21" t="n">
+        <v>225190.32</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -777,6 +836,9 @@
       <c r="D22" t="n">
         <v>298774.06</v>
       </c>
+      <c r="E22" t="n">
+        <v>300057.58</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -793,6 +855,9 @@
       <c r="D23" t="n">
         <v>168194.35</v>
       </c>
+      <c r="E23" t="n">
+        <v>176396.93</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -809,6 +874,9 @@
       <c r="D24" t="n">
         <v>17174.76</v>
       </c>
+      <c r="E24" t="n">
+        <v>17193.72</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -825,6 +893,9 @@
       <c r="D25" t="n">
         <v>138298.64</v>
       </c>
+      <c r="E25" t="n">
+        <v>138385.52</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -841,6 +912,9 @@
       <c r="D26" t="n">
         <v>1309.52</v>
       </c>
+      <c r="E26" t="n">
+        <v>677.5700000000001</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -856,6 +930,9 @@
       </c>
       <c r="D27" t="n">
         <v>75514.82000000001</v>
+      </c>
+      <c r="E27" t="n">
+        <v>75722.02</v>
       </c>
     </row>
     <row r="28">
@@ -871,6 +948,9 @@
       <c r="D28" t="n">
         <v>301901.94</v>
       </c>
+      <c r="E28" t="n">
+        <v>302886.77</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -887,6 +967,9 @@
       <c r="D29" t="n">
         <v>350408.99</v>
       </c>
+      <c r="E29" t="n">
+        <v>351660.83</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -903,6 +986,9 @@
       <c r="D30" t="n">
         <v>15906.39</v>
       </c>
+      <c r="E30" t="n">
+        <v>16383.34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -919,6 +1005,9 @@
       <c r="D31" t="n">
         <v>328577.84</v>
       </c>
+      <c r="E31" t="n">
+        <v>328611.41</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -935,6 +1024,9 @@
       <c r="D32" t="n">
         <v>231576.05</v>
       </c>
+      <c r="E32" t="n">
+        <v>227033.97</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -951,6 +1043,7 @@
       <c r="D33" t="n">
         <v>3612324.39</v>
       </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -967,6 +1060,9 @@
       <c r="D34" t="n">
         <v>100007.61</v>
       </c>
+      <c r="E34" t="n">
+        <v>99926.55</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -983,6 +1079,9 @@
       <c r="D35" t="n">
         <v>472137.59</v>
       </c>
+      <c r="E35" t="n">
+        <v>321736.41</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -998,6 +1097,9 @@
       </c>
       <c r="D36" t="n">
         <v>15580540.51</v>
+      </c>
+      <c r="E36" t="n">
+        <v>9330355.869999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VALO.xlsx
+++ b/backend/src/excel_handler/files/VALO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>580181.48</v>
       </c>
+      <c r="F2" t="n">
+        <v>578593.71</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>1047830.15</v>
       </c>
+      <c r="F3" t="n">
+        <v>1048418.21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +520,7 @@
         <v>238126.38</v>
       </c>
       <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -528,6 +540,9 @@
       <c r="E5" t="n">
         <v>111242.02</v>
       </c>
+      <c r="F5" t="n">
+        <v>111653.11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +560,7 @@
         <v>427489.72</v>
       </c>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -564,6 +580,9 @@
       <c r="E7" t="n">
         <v>89160.12</v>
       </c>
+      <c r="F7" t="n">
+        <v>89165.28</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -583,6 +602,9 @@
       <c r="E8" t="n">
         <v>389485.99</v>
       </c>
+      <c r="F8" t="n">
+        <v>389349.33</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -602,6 +624,9 @@
       <c r="E9" t="n">
         <v>1386810.11</v>
       </c>
+      <c r="F9" t="n">
+        <v>1389677.7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -621,6 +646,9 @@
       <c r="E10" t="n">
         <v>1050810.89</v>
       </c>
+      <c r="F10" t="n">
+        <v>1058675.89</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -640,6 +668,9 @@
       <c r="E11" t="n">
         <v>38720.62</v>
       </c>
+      <c r="F11" t="n">
+        <v>38587.81</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -659,6 +690,9 @@
       <c r="E12" t="n">
         <v>5535.31</v>
       </c>
+      <c r="F12" t="n">
+        <v>5539.23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -677,6 +711,9 @@
       </c>
       <c r="E13" t="n">
         <v>8221.93</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8297.32</v>
       </c>
     </row>
     <row r="14">
@@ -693,6 +730,7 @@
         <v>2069418.1</v>
       </c>
       <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -710,6 +748,9 @@
       <c r="E15" t="n">
         <v>167748.13</v>
       </c>
+      <c r="F15" t="n">
+        <v>168028.32</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -727,6 +768,9 @@
       <c r="E16" t="n">
         <v>158990.44</v>
       </c>
+      <c r="F16" t="n">
+        <v>159073.96</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -744,6 +788,9 @@
       <c r="E17" t="n">
         <v>1750587.62</v>
       </c>
+      <c r="F17" t="n">
+        <v>1711432.57</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -763,6 +810,9 @@
       <c r="E18" t="n">
         <v>202743.07</v>
       </c>
+      <c r="F18" t="n">
+        <v>200441.24</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -782,6 +832,9 @@
       <c r="E19" t="n">
         <v>71713.53</v>
       </c>
+      <c r="F19" t="n">
+        <v>71465.64999999999</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -801,6 +854,9 @@
       <c r="E20" t="n">
         <v>10447.93</v>
       </c>
+      <c r="F20" t="n">
+        <v>10455.75</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -820,6 +876,9 @@
       <c r="E21" t="n">
         <v>225190.32</v>
       </c>
+      <c r="F21" t="n">
+        <v>225622.17</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -839,6 +898,9 @@
       <c r="E22" t="n">
         <v>300057.58</v>
       </c>
+      <c r="F22" t="n">
+        <v>301529.09</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -858,6 +920,9 @@
       <c r="E23" t="n">
         <v>176396.93</v>
       </c>
+      <c r="F23" t="n">
+        <v>174870.57</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -877,6 +942,9 @@
       <c r="E24" t="n">
         <v>17193.72</v>
       </c>
+      <c r="F24" t="n">
+        <v>17161.06</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -896,6 +964,9 @@
       <c r="E25" t="n">
         <v>138385.52</v>
       </c>
+      <c r="F25" t="n">
+        <v>126094.86</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -915,6 +986,9 @@
       <c r="E26" t="n">
         <v>677.5700000000001</v>
       </c>
+      <c r="F26" t="n">
+        <v>681.05</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -933,6 +1007,9 @@
       </c>
       <c r="E27" t="n">
         <v>75722.02</v>
+      </c>
+      <c r="F27" t="n">
+        <v>75364.36</v>
       </c>
     </row>
     <row r="28">
@@ -951,6 +1028,9 @@
       <c r="E28" t="n">
         <v>302886.77</v>
       </c>
+      <c r="F28" t="n">
+        <v>302834.84</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -970,6 +1050,9 @@
       <c r="E29" t="n">
         <v>351660.83</v>
       </c>
+      <c r="F29" t="n">
+        <v>351928.49</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -989,6 +1072,9 @@
       <c r="E30" t="n">
         <v>16383.34</v>
       </c>
+      <c r="F30" t="n">
+        <v>16017.96</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1008,6 +1094,9 @@
       <c r="E31" t="n">
         <v>328611.41</v>
       </c>
+      <c r="F31" t="n">
+        <v>328817.34</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1027,6 +1116,9 @@
       <c r="E32" t="n">
         <v>227033.97</v>
       </c>
+      <c r="F32" t="n">
+        <v>245630.66</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1044,6 +1136,7 @@
         <v>3612324.39</v>
       </c>
       <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1063,6 +1156,9 @@
       <c r="E34" t="n">
         <v>99926.55</v>
       </c>
+      <c r="F34" t="n">
+        <v>99847.33</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1082,6 +1178,9 @@
       <c r="E35" t="n">
         <v>321736.41</v>
       </c>
+      <c r="F35" t="n">
+        <v>320870.86</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1100,6 +1199,9 @@
       </c>
       <c r="E36" t="n">
         <v>9330355.869999999</v>
+      </c>
+      <c r="F36" t="n">
+        <v>9305254.859999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VALO.xlsx
+++ b/backend/src/excel_handler/files/VALO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>578593.71</v>
       </c>
+      <c r="G2" t="n">
+        <v>578575.52</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>1048418.21</v>
       </c>
+      <c r="G3" t="n">
+        <v>1048010.21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -521,6 +532,7 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -543,6 +555,9 @@
       <c r="F5" t="n">
         <v>111653.11</v>
       </c>
+      <c r="G5" t="n">
+        <v>111146.71</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -561,6 +576,7 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -583,6 +599,9 @@
       <c r="F7" t="n">
         <v>89165.28</v>
       </c>
+      <c r="G7" t="n">
+        <v>89090.13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -605,6 +624,9 @@
       <c r="F8" t="n">
         <v>389349.33</v>
       </c>
+      <c r="G8" t="n">
+        <v>388653.69</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -627,6 +649,9 @@
       <c r="F9" t="n">
         <v>1389677.7</v>
       </c>
+      <c r="G9" t="n">
+        <v>1389403.75</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -649,6 +674,9 @@
       <c r="F10" t="n">
         <v>1058675.89</v>
       </c>
+      <c r="G10" t="n">
+        <v>1059109.71</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -671,6 +699,9 @@
       <c r="F11" t="n">
         <v>38587.81</v>
       </c>
+      <c r="G11" t="n">
+        <v>38468.14</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -693,6 +724,9 @@
       <c r="F12" t="n">
         <v>5539.23</v>
       </c>
+      <c r="G12" t="n">
+        <v>5523.23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -714,6 +748,9 @@
       </c>
       <c r="F13" t="n">
         <v>8297.32</v>
+      </c>
+      <c r="G13" t="n">
+        <v>8329.129999999999</v>
       </c>
     </row>
     <row r="14">
@@ -731,6 +768,7 @@
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -751,6 +789,9 @@
       <c r="F15" t="n">
         <v>168028.32</v>
       </c>
+      <c r="G15" t="n">
+        <v>166474.34</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -771,6 +812,9 @@
       <c r="F16" t="n">
         <v>159073.96</v>
       </c>
+      <c r="G16" t="n">
+        <v>160184.58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -791,6 +835,9 @@
       <c r="F17" t="n">
         <v>1711432.57</v>
       </c>
+      <c r="G17" t="n">
+        <v>1562002.18</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -813,6 +860,9 @@
       <c r="F18" t="n">
         <v>200441.24</v>
       </c>
+      <c r="G18" t="n">
+        <v>202555.29</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -835,6 +885,9 @@
       <c r="F19" t="n">
         <v>71465.64999999999</v>
       </c>
+      <c r="G19" t="n">
+        <v>71365.22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -857,6 +910,9 @@
       <c r="F20" t="n">
         <v>10455.75</v>
       </c>
+      <c r="G20" t="n">
+        <v>10500.59</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -879,6 +935,9 @@
       <c r="F21" t="n">
         <v>225622.17</v>
       </c>
+      <c r="G21" t="n">
+        <v>224149.91</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -901,6 +960,9 @@
       <c r="F22" t="n">
         <v>301529.09</v>
       </c>
+      <c r="G22" t="n">
+        <v>298650.39</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -923,6 +985,9 @@
       <c r="F23" t="n">
         <v>174870.57</v>
       </c>
+      <c r="G23" t="n">
+        <v>174192.17</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -945,6 +1010,9 @@
       <c r="F24" t="n">
         <v>17161.06</v>
       </c>
+      <c r="G24" t="n">
+        <v>17121.11</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -967,6 +1035,9 @@
       <c r="F25" t="n">
         <v>126094.86</v>
       </c>
+      <c r="G25" t="n">
+        <v>126250.33</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -989,6 +1060,9 @@
       <c r="F26" t="n">
         <v>681.05</v>
       </c>
+      <c r="G26" t="n">
+        <v>679.13</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1010,6 +1084,9 @@
       </c>
       <c r="F27" t="n">
         <v>75364.36</v>
+      </c>
+      <c r="G27" t="n">
+        <v>75399.16</v>
       </c>
     </row>
     <row r="28">
@@ -1031,6 +1108,9 @@
       <c r="F28" t="n">
         <v>302834.84</v>
       </c>
+      <c r="G28" t="n">
+        <v>301609.73</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1053,6 +1133,9 @@
       <c r="F29" t="n">
         <v>351928.49</v>
       </c>
+      <c r="G29" t="n">
+        <v>349834.03</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1075,6 +1158,9 @@
       <c r="F30" t="n">
         <v>16017.96</v>
       </c>
+      <c r="G30" t="n">
+        <v>15921.81</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1097,6 +1183,9 @@
       <c r="F31" t="n">
         <v>328817.34</v>
       </c>
+      <c r="G31" t="n">
+        <v>328878.49</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1119,6 +1208,9 @@
       <c r="F32" t="n">
         <v>245630.66</v>
       </c>
+      <c r="G32" t="n">
+        <v>248479.12</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1137,6 +1229,7 @@
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1159,6 +1252,9 @@
       <c r="F34" t="n">
         <v>99847.33</v>
       </c>
+      <c r="G34" t="n">
+        <v>100328.33</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1181,6 +1277,9 @@
       <c r="F35" t="n">
         <v>320870.86</v>
       </c>
+      <c r="G35" t="n">
+        <v>315547.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1202,6 +1301,9 @@
       </c>
       <c r="F36" t="n">
         <v>9305254.859999999</v>
+      </c>
+      <c r="G36" t="n">
+        <v>9150886.130000001</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VALO.xlsx
+++ b/backend/src/excel_handler/files/VALO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>578575.52</v>
       </c>
+      <c r="H2" t="n">
+        <v>581063.8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +521,9 @@
       </c>
       <c r="G3" t="n">
         <v>1048010.21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1044414.27</v>
       </c>
     </row>
     <row r="4">
@@ -533,6 +544,7 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -557,6 +569,9 @@
       </c>
       <c r="G5" t="n">
         <v>111146.71</v>
+      </c>
+      <c r="H5" t="n">
+        <v>111053.19</v>
       </c>
     </row>
     <row r="6">
@@ -577,6 +592,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -602,6 +618,9 @@
       <c r="G7" t="n">
         <v>89090.13</v>
       </c>
+      <c r="H7" t="n">
+        <v>89357.75999999999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -627,6 +646,9 @@
       <c r="G8" t="n">
         <v>388653.69</v>
       </c>
+      <c r="H8" t="n">
+        <v>390188.99</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -652,6 +674,9 @@
       <c r="G9" t="n">
         <v>1389403.75</v>
       </c>
+      <c r="H9" t="n">
+        <v>1385826.48</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -677,6 +702,9 @@
       <c r="G10" t="n">
         <v>1059109.71</v>
       </c>
+      <c r="H10" t="n">
+        <v>1057100.71</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -702,6 +730,9 @@
       <c r="G11" t="n">
         <v>38468.14</v>
       </c>
+      <c r="H11" t="n">
+        <v>38496.34</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -727,6 +758,9 @@
       <c r="G12" t="n">
         <v>5523.23</v>
       </c>
+      <c r="H12" t="n">
+        <v>5526.9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -751,6 +785,9 @@
       </c>
       <c r="G13" t="n">
         <v>8329.129999999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8418.32</v>
       </c>
     </row>
     <row r="14">
@@ -769,6 +806,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -792,6 +830,9 @@
       <c r="G15" t="n">
         <v>166474.34</v>
       </c>
+      <c r="H15" t="n">
+        <v>165156.29</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -815,6 +856,9 @@
       <c r="G16" t="n">
         <v>160184.58</v>
       </c>
+      <c r="H16" t="n">
+        <v>160024.89</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -838,6 +882,9 @@
       <c r="G17" t="n">
         <v>1562002.18</v>
       </c>
+      <c r="H17" t="n">
+        <v>1561071.41</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -863,6 +910,9 @@
       <c r="G18" t="n">
         <v>202555.29</v>
       </c>
+      <c r="H18" t="n">
+        <v>200728.91</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -888,6 +938,9 @@
       <c r="G19" t="n">
         <v>71365.22</v>
       </c>
+      <c r="H19" t="n">
+        <v>71690.60000000001</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -913,6 +966,9 @@
       <c r="G20" t="n">
         <v>10500.59</v>
       </c>
+      <c r="H20" t="n">
+        <v>10445.68</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -938,6 +994,9 @@
       <c r="G21" t="n">
         <v>224149.91</v>
       </c>
+      <c r="H21" t="n">
+        <v>225826.59</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -963,6 +1022,9 @@
       <c r="G22" t="n">
         <v>298650.39</v>
       </c>
+      <c r="H22" t="n">
+        <v>301328.36</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -988,6 +1050,9 @@
       <c r="G23" t="n">
         <v>174192.17</v>
       </c>
+      <c r="H23" t="n">
+        <v>207710.6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1013,6 +1078,9 @@
       <c r="G24" t="n">
         <v>17121.11</v>
       </c>
+      <c r="H24" t="n">
+        <v>17174.22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1038,6 +1106,9 @@
       <c r="G25" t="n">
         <v>126250.33</v>
       </c>
+      <c r="H25" t="n">
+        <v>125988.85</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1063,6 +1134,9 @@
       <c r="G26" t="n">
         <v>679.13</v>
       </c>
+      <c r="H26" t="n">
+        <v>679.4400000000001</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1087,6 +1161,9 @@
       </c>
       <c r="G27" t="n">
         <v>75399.16</v>
+      </c>
+      <c r="H27" t="n">
+        <v>75486.42</v>
       </c>
     </row>
     <row r="28">
@@ -1111,6 +1188,9 @@
       <c r="G28" t="n">
         <v>301609.73</v>
       </c>
+      <c r="H28" t="n">
+        <v>302232.6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1136,6 +1216,9 @@
       <c r="G29" t="n">
         <v>349834.03</v>
       </c>
+      <c r="H29" t="n">
+        <v>350385.77</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1161,6 +1244,9 @@
       <c r="G30" t="n">
         <v>15921.81</v>
       </c>
+      <c r="H30" t="n">
+        <v>15745.93</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1186,6 +1272,9 @@
       <c r="G31" t="n">
         <v>328878.49</v>
       </c>
+      <c r="H31" t="n">
+        <v>328223.09</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1210,6 +1299,9 @@
       </c>
       <c r="G32" t="n">
         <v>248479.12</v>
+      </c>
+      <c r="H32" t="n">
+        <v>248048.14</v>
       </c>
     </row>
     <row r="33">
@@ -1230,6 +1322,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1255,6 +1348,9 @@
       <c r="G34" t="n">
         <v>100328.33</v>
       </c>
+      <c r="H34" t="n">
+        <v>99723.99000000001</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1280,6 +1376,9 @@
       <c r="G35" t="n">
         <v>315547.8</v>
       </c>
+      <c r="H35" t="n">
+        <v>316521.33</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1304,6 +1403,9 @@
       </c>
       <c r="G36" t="n">
         <v>9150886.130000001</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9179118.539999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VALO.xlsx
+++ b/backend/src/excel_handler/files/VALO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>581063.8</v>
       </c>
+      <c r="I2" t="n">
+        <v>520895.73</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +532,9 @@
       </c>
       <c r="H3" t="n">
         <v>1044414.27</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1048289.57</v>
       </c>
     </row>
     <row r="4">
@@ -545,6 +556,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -572,6 +584,9 @@
       </c>
       <c r="H5" t="n">
         <v>111053.19</v>
+      </c>
+      <c r="I5" t="n">
+        <v>111279.12</v>
       </c>
     </row>
     <row r="6">
@@ -593,6 +608,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -621,6 +637,9 @@
       <c r="H7" t="n">
         <v>89357.75999999999</v>
       </c>
+      <c r="I7" t="n">
+        <v>89638.60000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -649,6 +668,9 @@
       <c r="H8" t="n">
         <v>390188.99</v>
       </c>
+      <c r="I8" t="n">
+        <v>389134.84</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -677,6 +699,9 @@
       <c r="H9" t="n">
         <v>1385826.48</v>
       </c>
+      <c r="I9" t="n">
+        <v>1387714.84</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -705,6 +730,9 @@
       <c r="H10" t="n">
         <v>1057100.71</v>
       </c>
+      <c r="I10" t="n">
+        <v>1051827.64</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -733,6 +761,9 @@
       <c r="H11" t="n">
         <v>38496.34</v>
       </c>
+      <c r="I11" t="n">
+        <v>38480.42</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -761,6 +792,9 @@
       <c r="H12" t="n">
         <v>5526.9</v>
       </c>
+      <c r="I12" t="n">
+        <v>5511.85</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -788,6 +822,9 @@
       </c>
       <c r="H13" t="n">
         <v>8418.32</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8490.450000000001</v>
       </c>
     </row>
     <row r="14">
@@ -807,6 +844,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -833,6 +871,9 @@
       <c r="H15" t="n">
         <v>165156.29</v>
       </c>
+      <c r="I15" t="n">
+        <v>168154.47</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -859,6 +900,9 @@
       <c r="H16" t="n">
         <v>160024.89</v>
       </c>
+      <c r="I16" t="n">
+        <v>161811.91</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -885,6 +929,9 @@
       <c r="H17" t="n">
         <v>1561071.41</v>
       </c>
+      <c r="I17" t="n">
+        <v>1550292.96</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -913,6 +960,9 @@
       <c r="H18" t="n">
         <v>200728.91</v>
       </c>
+      <c r="I18" t="n">
+        <v>202227.25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -941,6 +991,9 @@
       <c r="H19" t="n">
         <v>71690.60000000001</v>
       </c>
+      <c r="I19" t="n">
+        <v>71289.36</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -969,6 +1022,9 @@
       <c r="H20" t="n">
         <v>10445.68</v>
       </c>
+      <c r="I20" t="n">
+        <v>10422.09</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -997,6 +1053,9 @@
       <c r="H21" t="n">
         <v>225826.59</v>
       </c>
+      <c r="I21" t="n">
+        <v>200204.98</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1025,6 +1084,9 @@
       <c r="H22" t="n">
         <v>301328.36</v>
       </c>
+      <c r="I22" t="n">
+        <v>300340.42</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1053,6 +1115,9 @@
       <c r="H23" t="n">
         <v>207710.6</v>
       </c>
+      <c r="I23" t="n">
+        <v>207440.39</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1081,6 +1146,9 @@
       <c r="H24" t="n">
         <v>17174.22</v>
       </c>
+      <c r="I24" t="n">
+        <v>17175.1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1109,6 +1177,9 @@
       <c r="H25" t="n">
         <v>125988.85</v>
       </c>
+      <c r="I25" t="n">
+        <v>125553.12</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1137,6 +1208,9 @@
       <c r="H26" t="n">
         <v>679.4400000000001</v>
       </c>
+      <c r="I26" t="n">
+        <v>690.84</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1164,6 +1238,9 @@
       </c>
       <c r="H27" t="n">
         <v>75486.42</v>
+      </c>
+      <c r="I27" t="n">
+        <v>75468.05</v>
       </c>
     </row>
     <row r="28">
@@ -1191,6 +1268,9 @@
       <c r="H28" t="n">
         <v>302232.6</v>
       </c>
+      <c r="I28" t="n">
+        <v>302564.4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1219,6 +1299,9 @@
       <c r="H29" t="n">
         <v>350385.77</v>
       </c>
+      <c r="I29" t="n">
+        <v>350960.59</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1247,6 +1330,9 @@
       <c r="H30" t="n">
         <v>15745.93</v>
       </c>
+      <c r="I30" t="n">
+        <v>15918.18</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1275,6 +1361,9 @@
       <c r="H31" t="n">
         <v>328223.09</v>
       </c>
+      <c r="I31" t="n">
+        <v>327759.4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1302,6 +1391,9 @@
       </c>
       <c r="H32" t="n">
         <v>248048.14</v>
+      </c>
+      <c r="I32" t="n">
+        <v>249204.87</v>
       </c>
     </row>
     <row r="33">
@@ -1323,6 +1415,7 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1351,6 +1444,9 @@
       <c r="H34" t="n">
         <v>99723.99000000001</v>
       </c>
+      <c r="I34" t="n">
+        <v>100033.84</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1379,6 +1475,9 @@
       <c r="H35" t="n">
         <v>316521.33</v>
       </c>
+      <c r="I35" t="n">
+        <v>313406.04</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1406,6 +1505,9 @@
       </c>
       <c r="H36" t="n">
         <v>9179118.539999999</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9088775.279999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VALO.xlsx
+++ b/backend/src/excel_handler/files/VALO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>520895.73</v>
       </c>
+      <c r="J2" t="n">
+        <v>520708.03</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -535,6 +543,9 @@
       </c>
       <c r="I3" t="n">
         <v>1048289.57</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1048470.72</v>
       </c>
     </row>
     <row r="4">
@@ -557,6 +568,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -587,6 +599,9 @@
       </c>
       <c r="I5" t="n">
         <v>111279.12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>110847.61</v>
       </c>
     </row>
     <row r="6">
@@ -609,6 +624,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -640,6 +656,9 @@
       <c r="I7" t="n">
         <v>89638.60000000001</v>
       </c>
+      <c r="J7" t="n">
+        <v>89302.82000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -671,6 +690,9 @@
       <c r="I8" t="n">
         <v>389134.84</v>
       </c>
+      <c r="J8" t="n">
+        <v>389110.71</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -702,6 +724,9 @@
       <c r="I9" t="n">
         <v>1387714.84</v>
       </c>
+      <c r="J9" t="n">
+        <v>1263526.68</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -733,6 +758,9 @@
       <c r="I10" t="n">
         <v>1051827.64</v>
       </c>
+      <c r="J10" t="n">
+        <v>1054068.48</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -764,6 +792,9 @@
       <c r="I11" t="n">
         <v>38480.42</v>
       </c>
+      <c r="J11" t="n">
+        <v>38787.7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -795,6 +826,9 @@
       <c r="I12" t="n">
         <v>5511.85</v>
       </c>
+      <c r="J12" t="n">
+        <v>5517.86</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -825,6 +859,9 @@
       </c>
       <c r="I13" t="n">
         <v>8490.450000000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8456.16</v>
       </c>
     </row>
     <row r="14">
@@ -845,6 +882,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -874,6 +912,9 @@
       <c r="I15" t="n">
         <v>168154.47</v>
       </c>
+      <c r="J15" t="n">
+        <v>165711.13</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -903,6 +944,9 @@
       <c r="I16" t="n">
         <v>161811.91</v>
       </c>
+      <c r="J16" t="n">
+        <v>162003.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -932,6 +976,9 @@
       <c r="I17" t="n">
         <v>1550292.96</v>
       </c>
+      <c r="J17" t="n">
+        <v>1530747.01</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -963,6 +1010,9 @@
       <c r="I18" t="n">
         <v>202227.25</v>
       </c>
+      <c r="J18" t="n">
+        <v>201290.42</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -994,6 +1044,9 @@
       <c r="I19" t="n">
         <v>71289.36</v>
       </c>
+      <c r="J19" t="n">
+        <v>71727.52</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1025,6 +1078,9 @@
       <c r="I20" t="n">
         <v>10422.09</v>
       </c>
+      <c r="J20" t="n">
+        <v>10554.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1056,6 +1112,9 @@
       <c r="I21" t="n">
         <v>200204.98</v>
       </c>
+      <c r="J21" t="n">
+        <v>199512.86</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1087,6 +1146,9 @@
       <c r="I22" t="n">
         <v>300340.42</v>
       </c>
+      <c r="J22" t="n">
+        <v>301125.02</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1118,6 +1180,9 @@
       <c r="I23" t="n">
         <v>207440.39</v>
       </c>
+      <c r="J23" t="n">
+        <v>207097</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1149,6 +1214,9 @@
       <c r="I24" t="n">
         <v>17175.1</v>
       </c>
+      <c r="J24" t="n">
+        <v>17107.71</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1180,6 +1248,9 @@
       <c r="I25" t="n">
         <v>125553.12</v>
       </c>
+      <c r="J25" t="n">
+        <v>125932.08</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1211,6 +1282,9 @@
       <c r="I26" t="n">
         <v>690.84</v>
       </c>
+      <c r="J26" t="n">
+        <v>705.49</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1241,6 +1315,9 @@
       </c>
       <c r="I27" t="n">
         <v>75468.05</v>
+      </c>
+      <c r="J27" t="n">
+        <v>75486.82000000001</v>
       </c>
     </row>
     <row r="28">
@@ -1271,6 +1348,9 @@
       <c r="I28" t="n">
         <v>302564.4</v>
       </c>
+      <c r="J28" t="n">
+        <v>302187.23</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1302,6 +1382,9 @@
       <c r="I29" t="n">
         <v>350960.59</v>
       </c>
+      <c r="J29" t="n">
+        <v>351659.04</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1333,6 +1416,9 @@
       <c r="I30" t="n">
         <v>15918.18</v>
       </c>
+      <c r="J30" t="n">
+        <v>15762.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1364,6 +1450,9 @@
       <c r="I31" t="n">
         <v>327759.4</v>
       </c>
+      <c r="J31" t="n">
+        <v>328498.36</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1394,6 +1483,9 @@
       </c>
       <c r="I32" t="n">
         <v>249204.87</v>
+      </c>
+      <c r="J32" t="n">
+        <v>248588.65</v>
       </c>
     </row>
     <row r="33">
@@ -1416,6 +1508,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1447,6 +1540,9 @@
       <c r="I34" t="n">
         <v>100033.84</v>
       </c>
+      <c r="J34" t="n">
+        <v>99913.64</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1478,6 +1574,9 @@
       <c r="I35" t="n">
         <v>313406.04</v>
       </c>
+      <c r="J35" t="n">
+        <v>308427.85</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1508,6 +1607,9 @@
       </c>
       <c r="I36" t="n">
         <v>9088775.279999999</v>
+      </c>
+      <c r="J36" t="n">
+        <v>8944407.640000001</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VALO.xlsx
+++ b/backend/src/excel_handler/files/VALO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>520708.03</v>
       </c>
+      <c r="K2" t="n">
+        <v>460127.37</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -546,6 +554,9 @@
       </c>
       <c r="J3" t="n">
         <v>1048470.72</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1044764.55</v>
       </c>
     </row>
     <row r="4">
@@ -569,6 +580,7 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -602,6 +614,9 @@
       </c>
       <c r="J5" t="n">
         <v>110847.61</v>
+      </c>
+      <c r="K5" t="n">
+        <v>111639.02</v>
       </c>
     </row>
     <row r="6">
@@ -625,6 +640,7 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -659,6 +675,9 @@
       <c r="J7" t="n">
         <v>89302.82000000001</v>
       </c>
+      <c r="K7" t="n">
+        <v>89038.81</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -693,6 +712,9 @@
       <c r="J8" t="n">
         <v>389110.71</v>
       </c>
+      <c r="K8" t="n">
+        <v>390012.56</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -727,6 +749,9 @@
       <c r="J9" t="n">
         <v>1263526.68</v>
       </c>
+      <c r="K9" t="n">
+        <v>1267635.02</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -761,6 +786,9 @@
       <c r="J10" t="n">
         <v>1054068.48</v>
       </c>
+      <c r="K10" t="n">
+        <v>1055538.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -795,6 +823,9 @@
       <c r="J11" t="n">
         <v>38787.7</v>
       </c>
+      <c r="K11" t="n">
+        <v>4597.88</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -829,6 +860,9 @@
       <c r="J12" t="n">
         <v>5517.86</v>
       </c>
+      <c r="K12" t="n">
+        <v>5520.22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -862,6 +896,9 @@
       </c>
       <c r="J13" t="n">
         <v>8456.16</v>
+      </c>
+      <c r="K13" t="n">
+        <v>8580.24</v>
       </c>
     </row>
     <row r="14">
@@ -883,6 +920,7 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -915,6 +953,9 @@
       <c r="J15" t="n">
         <v>165711.13</v>
       </c>
+      <c r="K15" t="n">
+        <v>168245.76</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -947,6 +988,9 @@
       <c r="J16" t="n">
         <v>162003.5</v>
       </c>
+      <c r="K16" t="n">
+        <v>161850.03</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -979,6 +1023,9 @@
       <c r="J17" t="n">
         <v>1530747.01</v>
       </c>
+      <c r="K17" t="n">
+        <v>1525569.45</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1013,6 +1060,9 @@
       <c r="J18" t="n">
         <v>201290.42</v>
       </c>
+      <c r="K18" t="n">
+        <v>202286.62</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1047,6 +1097,9 @@
       <c r="J19" t="n">
         <v>71727.52</v>
       </c>
+      <c r="K19" t="n">
+        <v>71313.97</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1081,6 +1134,9 @@
       <c r="J20" t="n">
         <v>10554.8</v>
       </c>
+      <c r="K20" t="n">
+        <v>10551.71</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1115,6 +1171,9 @@
       <c r="J21" t="n">
         <v>199512.86</v>
       </c>
+      <c r="K21" t="n">
+        <v>199612.99</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1149,6 +1208,9 @@
       <c r="J22" t="n">
         <v>301125.02</v>
       </c>
+      <c r="K22" t="n">
+        <v>301135.34</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1183,6 +1245,9 @@
       <c r="J23" t="n">
         <v>207097</v>
       </c>
+      <c r="K23" t="n">
+        <v>206696.39</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1217,6 +1282,9 @@
       <c r="J24" t="n">
         <v>17107.71</v>
       </c>
+      <c r="K24" t="n">
+        <v>17192.92</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1251,6 +1319,9 @@
       <c r="J25" t="n">
         <v>125932.08</v>
       </c>
+      <c r="K25" t="n">
+        <v>101229.79</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1285,6 +1356,9 @@
       <c r="J26" t="n">
         <v>705.49</v>
       </c>
+      <c r="K26" t="n">
+        <v>715.29</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1318,6 +1392,9 @@
       </c>
       <c r="J27" t="n">
         <v>75486.82000000001</v>
+      </c>
+      <c r="K27" t="n">
+        <v>75419.91</v>
       </c>
     </row>
     <row r="28">
@@ -1351,6 +1428,9 @@
       <c r="J28" t="n">
         <v>302187.23</v>
       </c>
+      <c r="K28" t="n">
+        <v>301840.24</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1385,6 +1465,9 @@
       <c r="J29" t="n">
         <v>351659.04</v>
       </c>
+      <c r="K29" t="n">
+        <v>351290.88</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1419,6 +1502,9 @@
       <c r="J30" t="n">
         <v>15762.59</v>
       </c>
+      <c r="K30" t="n">
+        <v>15925.79</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1453,6 +1539,9 @@
       <c r="J31" t="n">
         <v>328498.36</v>
       </c>
+      <c r="K31" t="n">
+        <v>327900.82</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1486,6 +1575,9 @@
       </c>
       <c r="J32" t="n">
         <v>248588.65</v>
+      </c>
+      <c r="K32" t="n">
+        <v>247945.83</v>
       </c>
     </row>
     <row r="33">
@@ -1509,6 +1601,7 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1543,6 +1636,9 @@
       <c r="J34" t="n">
         <v>99913.64</v>
       </c>
+      <c r="K34" t="n">
+        <v>99732.23</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1577,6 +1673,9 @@
       <c r="J35" t="n">
         <v>308427.85</v>
       </c>
+      <c r="K35" t="n">
+        <v>304272.77</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1610,6 +1709,9 @@
       </c>
       <c r="J36" t="n">
         <v>8944407.640000001</v>
+      </c>
+      <c r="K36" t="n">
+        <v>8823910.23</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VALO.xlsx
+++ b/backend/src/excel_handler/files/VALO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>460127.37</v>
       </c>
+      <c r="L2" t="n">
+        <v>319788.16</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -557,6 +565,9 @@
       </c>
       <c r="K3" t="n">
         <v>1044764.55</v>
+      </c>
+      <c r="L3" t="n">
+        <v>989233.66</v>
       </c>
     </row>
     <row r="4">
@@ -581,6 +592,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -617,6 +629,9 @@
       </c>
       <c r="K5" t="n">
         <v>111639.02</v>
+      </c>
+      <c r="L5" t="n">
+        <v>110848.7</v>
       </c>
     </row>
     <row r="6">
@@ -641,6 +656,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -678,6 +694,9 @@
       <c r="K7" t="n">
         <v>89038.81</v>
       </c>
+      <c r="L7" t="n">
+        <v>89112.74000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -715,6 +734,9 @@
       <c r="K8" t="n">
         <v>390012.56</v>
       </c>
+      <c r="L8" t="n">
+        <v>390538.11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -752,6 +774,9 @@
       <c r="K9" t="n">
         <v>1267635.02</v>
       </c>
+      <c r="L9" t="n">
+        <v>1267871.08</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -789,6 +814,9 @@
       <c r="K10" t="n">
         <v>1055538.6</v>
       </c>
+      <c r="L10" t="n">
+        <v>1051958.19</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -826,6 +854,9 @@
       <c r="K11" t="n">
         <v>4597.88</v>
       </c>
+      <c r="L11" t="n">
+        <v>4607.72</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -863,6 +894,9 @@
       <c r="K12" t="n">
         <v>5520.22</v>
       </c>
+      <c r="L12" t="n">
+        <v>5517.38</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -899,6 +933,9 @@
       </c>
       <c r="K13" t="n">
         <v>8580.24</v>
+      </c>
+      <c r="L13" t="n">
+        <v>8086.7</v>
       </c>
     </row>
     <row r="14">
@@ -921,6 +958,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -956,6 +994,9 @@
       <c r="K15" t="n">
         <v>168245.76</v>
       </c>
+      <c r="L15" t="n">
+        <v>165175.97</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -991,6 +1032,9 @@
       <c r="K16" t="n">
         <v>161850.03</v>
       </c>
+      <c r="L16" t="n">
+        <v>159627.04</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1026,6 +1070,9 @@
       <c r="K17" t="n">
         <v>1525569.45</v>
       </c>
+      <c r="L17" t="n">
+        <v>1507539.27</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1063,6 +1110,9 @@
       <c r="K18" t="n">
         <v>202286.62</v>
       </c>
+      <c r="L18" t="n">
+        <v>202235.7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1100,6 +1150,9 @@
       <c r="K19" t="n">
         <v>71313.97</v>
       </c>
+      <c r="L19" t="n">
+        <v>71587.73</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1137,6 +1190,9 @@
       <c r="K20" t="n">
         <v>10551.71</v>
       </c>
+      <c r="L20" t="n">
+        <v>10582.65</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1174,6 +1230,9 @@
       <c r="K21" t="n">
         <v>199612.99</v>
       </c>
+      <c r="L21" t="n">
+        <v>179761.55</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1211,6 +1270,9 @@
       <c r="K22" t="n">
         <v>301135.34</v>
       </c>
+      <c r="L22" t="n">
+        <v>294689.75</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1248,6 +1310,9 @@
       <c r="K23" t="n">
         <v>206696.39</v>
       </c>
+      <c r="L23" t="n">
+        <v>205406.03</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1285,6 +1350,9 @@
       <c r="K24" t="n">
         <v>17192.92</v>
       </c>
+      <c r="L24" t="n">
+        <v>17185.8</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1322,6 +1390,9 @@
       <c r="K25" t="n">
         <v>101229.79</v>
       </c>
+      <c r="L25" t="n">
+        <v>86799.24000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1359,6 +1430,9 @@
       <c r="K26" t="n">
         <v>715.29</v>
       </c>
+      <c r="L26" t="n">
+        <v>709.62</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1395,6 +1469,9 @@
       </c>
       <c r="K27" t="n">
         <v>75419.91</v>
+      </c>
+      <c r="L27" t="n">
+        <v>75569.78</v>
       </c>
     </row>
     <row r="28">
@@ -1431,6 +1508,9 @@
       <c r="K28" t="n">
         <v>301840.24</v>
       </c>
+      <c r="L28" t="n">
+        <v>302194.07</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1468,6 +1548,9 @@
       <c r="K29" t="n">
         <v>351290.88</v>
       </c>
+      <c r="L29" t="n">
+        <v>352092.96</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1505,6 +1588,9 @@
       <c r="K30" t="n">
         <v>15925.79</v>
       </c>
+      <c r="L30" t="n">
+        <v>15530.08</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1542,6 +1628,9 @@
       <c r="K31" t="n">
         <v>327900.82</v>
       </c>
+      <c r="L31" t="n">
+        <v>327812.72</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1578,6 +1667,9 @@
       </c>
       <c r="K32" t="n">
         <v>247945.83</v>
+      </c>
+      <c r="L32" t="n">
+        <v>248746.49</v>
       </c>
     </row>
     <row r="33">
@@ -1602,6 +1694,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1639,6 +1732,9 @@
       <c r="K34" t="n">
         <v>99732.23</v>
       </c>
+      <c r="L34" t="n">
+        <v>100361.01</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1676,6 +1772,9 @@
       <c r="K35" t="n">
         <v>304272.77</v>
       </c>
+      <c r="L35" t="n">
+        <v>295212.76</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1712,6 +1811,9 @@
       </c>
       <c r="K36" t="n">
         <v>8823910.23</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8561169.9</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/VALO.xlsx
+++ b/backend/src/excel_handler/files/VALO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>319788.16</v>
       </c>
+      <c r="M2" t="n">
+        <v>318908.93</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -568,6 +576,9 @@
       </c>
       <c r="L3" t="n">
         <v>989233.66</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1051954.17</v>
       </c>
     </row>
     <row r="4">
@@ -593,6 +604,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +644,9 @@
       </c>
       <c r="L5" t="n">
         <v>110848.7</v>
+      </c>
+      <c r="M5" t="n">
+        <v>111245.5</v>
       </c>
     </row>
     <row r="6">
@@ -657,6 +672,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -697,6 +713,9 @@
       <c r="L7" t="n">
         <v>89112.74000000001</v>
       </c>
+      <c r="M7" t="n">
+        <v>89072.35000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -737,6 +756,9 @@
       <c r="L8" t="n">
         <v>390538.11</v>
       </c>
+      <c r="M8" t="n">
+        <v>390050.86</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -777,6 +799,9 @@
       <c r="L9" t="n">
         <v>1267871.08</v>
       </c>
+      <c r="M9" t="n">
+        <v>1264943.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -817,6 +842,9 @@
       <c r="L10" t="n">
         <v>1051958.19</v>
       </c>
+      <c r="M10" t="n">
+        <v>1056266.31</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -857,6 +885,9 @@
       <c r="L11" t="n">
         <v>4607.72</v>
       </c>
+      <c r="M11" t="n">
+        <v>4616.16</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -897,6 +928,9 @@
       <c r="L12" t="n">
         <v>5517.38</v>
       </c>
+      <c r="M12" t="n">
+        <v>5522.2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -936,6 +970,9 @@
       </c>
       <c r="L13" t="n">
         <v>8086.7</v>
+      </c>
+      <c r="M13" t="n">
+        <v>8366.18</v>
       </c>
     </row>
     <row r="14">
@@ -959,6 +996,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -997,6 +1035,9 @@
       <c r="L15" t="n">
         <v>165175.97</v>
       </c>
+      <c r="M15" t="n">
+        <v>166781.14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1035,6 +1076,9 @@
       <c r="L16" t="n">
         <v>159627.04</v>
       </c>
+      <c r="M16" t="n">
+        <v>158676.45</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1073,6 +1117,9 @@
       <c r="L17" t="n">
         <v>1507539.27</v>
       </c>
+      <c r="M17" t="n">
+        <v>1477652.36</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1113,6 +1160,9 @@
       <c r="L18" t="n">
         <v>202235.7</v>
       </c>
+      <c r="M18" t="n">
+        <v>201420.81</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1153,6 +1203,9 @@
       <c r="L19" t="n">
         <v>71587.73</v>
       </c>
+      <c r="M19" t="n">
+        <v>71314.25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1193,6 +1246,9 @@
       <c r="L20" t="n">
         <v>10582.65</v>
       </c>
+      <c r="M20" t="n">
+        <v>10574.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1233,6 +1289,9 @@
       <c r="L21" t="n">
         <v>179761.55</v>
       </c>
+      <c r="M21" t="n">
+        <v>180021.74</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1273,6 +1332,9 @@
       <c r="L22" t="n">
         <v>294689.75</v>
       </c>
+      <c r="M22" t="n">
+        <v>296021.42</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1313,6 +1375,9 @@
       <c r="L23" t="n">
         <v>205406.03</v>
       </c>
+      <c r="M23" t="n">
+        <v>181512.84</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1353,6 +1418,9 @@
       <c r="L24" t="n">
         <v>17185.8</v>
       </c>
+      <c r="M24" t="n">
+        <v>17103.01</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1393,6 +1461,9 @@
       <c r="L25" t="n">
         <v>86799.24000000001</v>
       </c>
+      <c r="M25" t="n">
+        <v>87303.74000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1433,6 +1504,9 @@
       <c r="L26" t="n">
         <v>709.62</v>
       </c>
+      <c r="M26" t="n">
+        <v>740.4400000000001</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1472,6 +1546,9 @@
       </c>
       <c r="L27" t="n">
         <v>75569.78</v>
+      </c>
+      <c r="M27" t="n">
+        <v>75626</v>
       </c>
     </row>
     <row r="28">
@@ -1511,6 +1588,9 @@
       <c r="L28" t="n">
         <v>302194.07</v>
       </c>
+      <c r="M28" t="n">
+        <v>301565.28</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1551,6 +1631,9 @@
       <c r="L29" t="n">
         <v>352092.96</v>
       </c>
+      <c r="M29" t="n">
+        <v>349336.36</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1591,6 +1674,9 @@
       <c r="L30" t="n">
         <v>15530.08</v>
       </c>
+      <c r="M30" t="n">
+        <v>16006.01</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1631,6 +1717,9 @@
       <c r="L31" t="n">
         <v>327812.72</v>
       </c>
+      <c r="M31" t="n">
+        <v>327557.99</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1670,6 +1759,9 @@
       </c>
       <c r="L32" t="n">
         <v>248746.49</v>
+      </c>
+      <c r="M32" t="n">
+        <v>240964.63</v>
       </c>
     </row>
     <row r="33">
@@ -1695,6 +1787,7 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1735,6 +1828,9 @@
       <c r="L34" t="n">
         <v>100361.01</v>
       </c>
+      <c r="M34" t="n">
+        <v>100278.56</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1775,6 +1871,9 @@
       <c r="L35" t="n">
         <v>295212.76</v>
       </c>
+      <c r="M35" t="n">
+        <v>295220.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1814,6 +1913,9 @@
       </c>
       <c r="L36" t="n">
         <v>8561169.9</v>
+      </c>
+      <c r="M36" t="n">
+        <v>8561403.289999999</v>
       </c>
     </row>
   </sheetData>
